--- a/biology/Médecine/Thermorécepteur/Thermorécepteur.xlsx
+++ b/biology/Médecine/Thermorécepteur/Thermorécepteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thermor%C3%A9cepteur</t>
+          <t>Thermorécepteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thermorécepteurs sont les récepteurs qui mesurent les variations de température cutanée (et non la température ambiante). On en trouve également dans certaines structures cérébrales, jouant un rôle dans la thermorégulation : les thermorécepteurs envoient une information afférente aux centres de régulation hypothalamiques qui agissent en envoyant des informations efférentes vers des systèmes régulants (glandes sudoripares, muscles lisses et squelettiques) permettant le maintien quasi constant de la valeur de consigne. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thermor%C3%A9cepteur</t>
+          <t>Thermorécepteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Types de récepteurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">I. Les thermorécepteurs profonds
 Situés au niveau du territoire vasculaire viscérale, de la moelle épinière et de l'hypothalamus ils permettent de réguler la température du noyau thermique (ou température centrale).
